--- a/notes/truth-table.xlsx
+++ b/notes/truth-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>accept</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>IGNORED?</t>
+  </si>
+  <si>
+    <t>LCDbCryovialRetrieval::Status { EXPECTED, IGNORED, COLLECTED, DISPOSED, NOT_FOUND, NUM_STATUSES, DELETED = 99 }</t>
+  </si>
+  <si>
+    <t>LPDbCryovial::Status { EXPECTED  = 0, STORED = 1, SPLIT = 2, DESTROYED = 3, DELETED = 99 }</t>
+  </si>
+  <si>
+    <t>LPDbBoxName::Status { EMPTY = 0, IN_USE = 1, CONFIRMED = 2, ANALYSED = 3, IN_TANK = 4, DESTROYED = 8, DELETED = 99 }</t>
+  </si>
+  <si>
+    <t>LCDbBoxStore::Status { EXPECTED = 0, UNCONFIRMED = 1, MOVE_EXPECTED = 2, REMOVED = 3, SLOT_ALLOCATED = 5, SLOT_CONFIRMED = 6, REFERRED = 7, DELETED = 99 }</t>
+  </si>
+  <si>
+    <t>LPDbCryovialStore::Status { ALLOCATED, CONFIRMED, MOVE_EXPECTED, DESTROYED, ANALYSED, TRANSFERRED, SUB_TAKEN, NOT_FOUND, DELETED = 99 }</t>
   </si>
 </sst>
 </file>
@@ -438,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A4:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,142 +469,67 @@
     <col min="6" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
+      <c r="A4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,16 +537,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -614,19 +554,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -634,16 +574,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -657,150 +597,250 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/notes/truth-table.xlsx
+++ b/notes/truth-table.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="13605"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="13605" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="each row" sheetId="1" r:id="rId1"/>
+    <sheet name="chunk finished" sheetId="2" r:id="rId2"/>
+    <sheet name="signoff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
   <si>
     <t>accept</t>
   </si>
@@ -96,16 +96,40 @@
     <t>LCDbCryovialRetrieval::Status { EXPECTED, IGNORED, COLLECTED, DISPOSED, NOT_FOUND, NUM_STATUSES, DELETED = 99 }</t>
   </si>
   <si>
-    <t>LPDbCryovial::Status { EXPECTED  = 0, STORED = 1, SPLIT = 2, DESTROYED = 3, DELETED = 99 }</t>
-  </si>
-  <si>
-    <t>LPDbBoxName::Status { EMPTY = 0, IN_USE = 1, CONFIRMED = 2, ANALYSED = 3, IN_TANK = 4, DESTROYED = 8, DELETED = 99 }</t>
-  </si>
-  <si>
-    <t>LCDbBoxStore::Status { EXPECTED = 0, UNCONFIRMED = 1, MOVE_EXPECTED = 2, REMOVED = 3, SLOT_ALLOCATED = 5, SLOT_CONFIRMED = 6, REFERRED = 7, DELETED = 99 }</t>
-  </si>
-  <si>
-    <t>LPDbCryovialStore::Status { ALLOCATED, CONFIRMED, MOVE_EXPECTED, DESTROYED, ANALYSED, TRANSFERRED, SUB_TAKEN, NOT_FOUND, DELETED = 99 }</t>
+    <t>chunk complete</t>
+  </si>
+  <si>
+    <t>collectEmpties</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>LPDbCryovial::Status { }</t>
+  </si>
+  <si>
+    <t>LPDbCryovialStore::Status</t>
+  </si>
+  <si>
+    <t>ALLOCATED, CONFIRMED, MOVE_EXPECTED, DESTROYED, ANALYSED, TRANSFERRED, SUB_TAKEN, NOT_FOUND, DELETED = 99</t>
+  </si>
+  <si>
+    <t>EXPECTED  = 0, STORED = 1, SPLIT = 2, DESTROYED = 3, DELETED = 99</t>
+  </si>
+  <si>
+    <t>LPDbBoxName::Status</t>
+  </si>
+  <si>
+    <t>EMPTY = 0, IN_USE = 1, CONFIRMED = 2, ANALYSED = 3, IN_TANK = 4, DESTROYED = 8, DELETED = 99</t>
+  </si>
+  <si>
+    <t>LCDbBoxStore::Status</t>
+  </si>
+  <si>
+    <t>EXPECTED = 0, UNCONFIRMED = 1, MOVE_EXPECTED = 2, REMOVED = 3, SLOT_ALLOCATED = 5, SLOT_CONFIRMED = 6, REFERRED = 7,DELETED = 99</t>
   </si>
 </sst>
 </file>
@@ -453,20 +477,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G47"/>
+  <dimension ref="A4:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,158 +716,6 @@
       </c>
       <c r="G18" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -852,24 +726,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A7:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>